--- a/data/trans_bre/P20B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.346778356858534</v>
+        <v>-7.278032448040666</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.21536574644091</v>
+        <v>-11.54194626044338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.226743283147172</v>
+        <v>-9.458834366833591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-22.60570357740109</v>
+        <v>-22.46960990757774</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2341479735212832</v>
+        <v>-0.2333629206552781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3326908214366268</v>
+        <v>-0.3236160507901012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2573410889141564</v>
+        <v>-0.2646940074306461</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5404088196748856</v>
+        <v>-0.5454998760262416</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.28762756813355</v>
+        <v>18.87311465458435</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.16074638938489</v>
+        <v>13.98747398112565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.78514628767663</v>
+        <v>23.81074727754654</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.790730760097837</v>
+        <v>5.177837690999408</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.096558568153763</v>
+        <v>0.9799240908529449</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6972102780045055</v>
+        <v>0.6452515846266388</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.058742885301059</v>
+        <v>1.154530323359028</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2174194810186352</v>
+        <v>0.2179399886597807</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-18.35969797530345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-11.61262641805874</v>
+        <v>-11.61262641805876</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4125734633349263</v>
@@ -749,7 +749,7 @@
         <v>-0.4376318540425251</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.326509057786927</v>
+        <v>-0.3265090577869274</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-22.78878799016483</v>
+        <v>-21.89129061953327</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-21.48730937998225</v>
+        <v>-21.83508412461867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-31.81264167248677</v>
+        <v>-31.97964137343891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-22.33565259250385</v>
+        <v>-23.25474548125128</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7249013539457707</v>
+        <v>-0.7105279028993621</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5540235187677204</v>
+        <v>-0.5557204785088171</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6304743046152</v>
+        <v>-0.6282211526757795</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5411670420916458</v>
+        <v>-0.5489087397259667</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.786296533389904</v>
+        <v>4.222595285901341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.167245234053424</v>
+        <v>0.9374029299762504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-4.68773593370898</v>
+        <v>-5.570695012667986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2267400448794065</v>
+        <v>0.8585864700376059</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3362160646434783</v>
+        <v>0.41487833308044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0480874219333781</v>
+        <v>0.04519313550254275</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1374415618727307</v>
+        <v>-0.1665279904795567</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01205235474937349</v>
+        <v>0.05961914761144112</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-12.25726986444441</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-8.887126505826842</v>
+        <v>-8.887126505826846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.668507143780563</v>
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-51.21170921418913</v>
+        <v>-49.3608498079999</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-39.61505285097861</v>
+        <v>-44.45279261699865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-32.49482601964904</v>
+        <v>-31.05596063801973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-28.95778440694403</v>
+        <v>-28.85271707831157</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.9358491120220296</v>
+        <v>-0.9284624556935032</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8292920829481956</v>
+        <v>-0.9365937497250629</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.6695387348752377</v>
+        <v>-0.6810270792010711</v>
       </c>
     </row>
     <row r="12">
@@ -890,24 +890,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-3.5670884176025</v>
+        <v>-2.024200684453081</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.25766344861784</v>
+        <v>22.68369400242199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.179687016393885</v>
+        <v>1.795187958259483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.638888692922217</v>
+        <v>8.189020816405712</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.0405760945005084</v>
+        <v>0.1274937761910449</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.5595858788680327</v>
+        <v>0.617252857037803</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         <v>-9.341899917322493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-10.21801700740865</v>
+        <v>-10.21801700740864</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2305039587340064</v>
@@ -943,7 +943,7 @@
         <v>-0.2772256687575638</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3060976687878244</v>
+        <v>-0.3060976687878241</v>
       </c>
     </row>
     <row r="14">
@@ -954,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.10563370060653</v>
+        <v>-14.98989302698247</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.1635035906531</v>
+        <v>-13.51736398083667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-18.46187650657059</v>
+        <v>-18.9195461323189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-18.56441694852336</v>
+        <v>-18.84828547685591</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.45185792190783</v>
+        <v>-0.4764757488269451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3807386615484943</v>
+        <v>-0.3865691875609286</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.466230473630996</v>
+        <v>-0.4774547229531264</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4871395335315942</v>
+        <v>-0.477450864850739</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.870078310529214</v>
+        <v>2.429504340701693</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.145790135758955</v>
+        <v>3.261239331403912</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1692074933276928</v>
+        <v>-0.04823182913264846</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.655278744142854</v>
+        <v>-1.855379456164728</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1295097181006492</v>
+        <v>0.1282796839329437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1221546346577448</v>
+        <v>0.138415252394141</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.004880802274638946</v>
+        <v>0.003192302351711744</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.0527388165261079</v>
+        <v>-0.04854999103910698</v>
       </c>
     </row>
     <row r="16">
